--- a/medicine/Pharmacie/Tadeusz_Pankiewicz/Tadeusz_Pankiewicz.xlsx
+++ b/medicine/Pharmacie/Tadeusz_Pankiewicz/Tadeusz_Pankiewicz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tadeusz Pankiewicz, né le 21 novembre 1908 à Sambor et mort le 5 novembre 1993 (à 84 ans), est un pharmacien polonais qui a tenu la seule pharmacie du ghetto de Cracovie pendant la Seconde Guerre mondiale.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fit des études supérieures à l'Université Jagellon de Cracovie.
-Sa boutique se trouvait en plein milieu du ghetto. Tadeusz Pankiewicz fut le seul non-Juif à rester dans le ghetto, à tenir ouverte sa pharmacie et à aider activement les Juifs jusqu'au jour de la liquidation[1]. 
+Sa boutique se trouvait en plein milieu du ghetto. Tadeusz Pankiewicz fut le seul non-Juif à rester dans le ghetto, à tenir ouverte sa pharmacie et à aider activement les Juifs jusqu'au jour de la liquidation. 
 Il a relaté son expérience dans un livre (La Pharmacie du ghetto de Cracovie). Cette pharmacie abrite aujourd'hui le Musée du Ghetto dans le quartier de Podgórze à Cracovie.
-Le mémorial de Yad Vashem l'a reconnu comme Juste parmi les nations le 10 février 1983[2].
+Le mémorial de Yad Vashem l'a reconnu comme Juste parmi les nations le 10 février 1983.
 Mort à Cracovie, Tadeusz Pankiewicz est enterré au cimetière Rakowicki.
 </t>
         </is>
